--- a/Data_xlsx/results pbcatom ADDITIONAL.xlsx
+++ b/Data_xlsx/results pbcatom ADDITIONAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Desktop\RAMD\matscripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Desktop\Ramd_calc\Data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC0F9D9-B970-47B6-8954-3A0A38183272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E90B8-72C5-4742-91A0-1759FCF6B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="24080" windowHeight="14320" xr2:uid="{4DE2725E-CB24-423F-9A7A-ABE8BABFB56C}"/>
+    <workbookView xWindow="1440" yWindow="960" windowWidth="24080" windowHeight="14320" xr2:uid="{4DE2725E-CB24-423F-9A7A-ABE8BABFB56C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,6 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -426,7 +415,7 @@
   <dimension ref="A1:AO725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+      <selection activeCell="P1" sqref="P1:Q302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
